--- a/Data/Generic Bundesbank yield.xlsx
+++ b/Data/Generic Bundesbank yield.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/zbr894_ku_dk/Documents/Økonomi - Kandidat/Heterogenous-spillover-ECB/Input Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/zbr894_ku_dk/Documents/OscarErnst-Heterogenous-spillover-ECB/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{1E0EAD6D-07DB-4C80-883A-34AC6D3AFF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFCD69E2-EFD2-6D45-B8A5-C96C76992D7B}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{1E0EAD6D-07DB-4C80-883A-34AC6D3AFF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25C78D86-271B-9645-94FE-21FCDFC3C31E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{C61B667D-FFFD-4880-8CB5-595AC52861AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$334</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -423,7 +426,7 @@
   <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -447,2326 +450,2035 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45747</v>
-      </c>
-      <c r="B2">
-        <v>2.109</v>
+        <v>35642</v>
       </c>
       <c r="C2">
-        <v>2.0030000000000001</v>
-      </c>
-      <c r="D2">
-        <v>2.0449999999999999</v>
+        <v>3.3109999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45716</v>
-      </c>
-      <c r="B3">
-        <v>2.153</v>
+        <v>35671</v>
       </c>
       <c r="C3">
-        <v>2.0019999999999998</v>
-      </c>
-      <c r="D3">
-        <v>2.0209999999999999</v>
+        <v>3.4740000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45688</v>
-      </c>
-      <c r="B4">
-        <v>2.3410000000000002</v>
+        <v>35703</v>
       </c>
       <c r="C4">
-        <v>2.121</v>
-      </c>
-      <c r="D4">
-        <v>2.11</v>
+        <v>3.5950000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45657</v>
-      </c>
-      <c r="B5">
-        <v>2.456</v>
+        <v>35734</v>
       </c>
       <c r="C5">
-        <v>2.2170000000000001</v>
-      </c>
-      <c r="D5">
-        <v>2.077</v>
+        <v>3.9209999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45625</v>
-      </c>
-      <c r="B6">
-        <v>2.5030000000000001</v>
+        <v>35762</v>
       </c>
       <c r="C6">
-        <v>2.2320000000000002</v>
-      </c>
-      <c r="D6">
-        <v>1.9450000000000001</v>
+        <v>4.0140000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45596</v>
-      </c>
-      <c r="B7">
-        <v>2.7530000000000001</v>
+        <v>35795</v>
       </c>
       <c r="C7">
-        <v>2.4409999999999998</v>
-      </c>
-      <c r="D7">
-        <v>2.2759999999999998</v>
+        <v>3.9089999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45565</v>
-      </c>
-      <c r="B8">
-        <v>2.8690000000000002</v>
+        <v>35825</v>
       </c>
       <c r="C8">
-        <v>2.4540000000000002</v>
-      </c>
-      <c r="D8">
-        <v>2.0640000000000001</v>
+        <v>3.673</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B9">
-        <v>3.1160000000000001</v>
+        <v>35853</v>
       </c>
       <c r="C9">
-        <v>2.8109999999999999</v>
-      </c>
-      <c r="D9">
-        <v>2.3879999999999999</v>
+        <v>3.6549999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45504</v>
-      </c>
-      <c r="B10">
-        <v>3.2930000000000001</v>
+        <v>35885</v>
       </c>
       <c r="C10">
-        <v>2.9870000000000001</v>
-      </c>
-      <c r="D10">
-        <v>2.5249999999999999</v>
+        <v>3.798</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45471</v>
-      </c>
-      <c r="B11">
-        <v>3.3719999999999999</v>
+        <v>35915</v>
       </c>
       <c r="C11">
-        <v>3.1850000000000001</v>
-      </c>
-      <c r="D11">
-        <v>2.8279999999999998</v>
+        <v>3.8740000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45443</v>
-      </c>
-      <c r="B12">
-        <v>3.5470000000000002</v>
+        <v>35944</v>
       </c>
       <c r="C12">
-        <v>3.419</v>
-      </c>
-      <c r="D12">
-        <v>3.093</v>
+        <v>3.734</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45412</v>
-      </c>
-      <c r="B13">
-        <v>3.589</v>
+        <v>35976</v>
       </c>
       <c r="C13">
-        <v>3.4279999999999999</v>
-      </c>
-      <c r="D13">
-        <v>3.03</v>
+        <v>3.7970000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45380</v>
-      </c>
-      <c r="B14">
-        <v>3.6240000000000001</v>
+        <v>36007</v>
       </c>
       <c r="C14">
-        <v>3.327</v>
-      </c>
-      <c r="D14">
-        <v>2.8460000000000001</v>
+        <v>3.7440000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45351</v>
-      </c>
-      <c r="B15">
-        <v>3.6659999999999999</v>
+        <v>36038</v>
       </c>
       <c r="C15">
-        <v>3.4119999999999999</v>
-      </c>
-      <c r="D15">
-        <v>2.8980000000000001</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45322</v>
-      </c>
-      <c r="B16">
-        <v>3.5880000000000001</v>
+        <v>36068</v>
       </c>
       <c r="C16">
-        <v>3.1240000000000001</v>
-      </c>
-      <c r="D16">
-        <v>2.415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.4710000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45289</v>
-      </c>
-      <c r="B17">
-        <v>3.65</v>
+        <v>36098</v>
       </c>
       <c r="C17">
-        <v>3.1459999999999999</v>
-      </c>
-      <c r="D17">
-        <v>2.3919999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.4249999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45260</v>
-      </c>
-      <c r="B18">
-        <v>3.7040000000000002</v>
+        <v>36129</v>
       </c>
       <c r="C18">
-        <v>3.3959999999999999</v>
-      </c>
-      <c r="D18">
-        <v>2.8119999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45230</v>
-      </c>
-      <c r="B19">
-        <v>3.7469999999999999</v>
+        <v>36160</v>
       </c>
       <c r="C19">
-        <v>3.62</v>
-      </c>
-      <c r="D19">
-        <v>3.0110000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.9590000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45198</v>
-      </c>
-      <c r="B20">
-        <v>3.7349999999999999</v>
+        <v>36189</v>
       </c>
       <c r="C20">
-        <v>3.68</v>
-      </c>
-      <c r="D20">
-        <v>3.198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45169</v>
-      </c>
-      <c r="B21">
-        <v>3.6179999999999999</v>
+        <v>36217</v>
       </c>
       <c r="C21">
-        <v>3.5169999999999999</v>
-      </c>
-      <c r="D21">
-        <v>2.9670000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45138</v>
-      </c>
-      <c r="B22">
-        <v>3.5950000000000002</v>
+        <v>36250</v>
       </c>
       <c r="C22">
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="D22">
-        <v>3.0310000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45107</v>
-      </c>
-      <c r="B23">
-        <v>3.577</v>
+        <v>36280</v>
       </c>
       <c r="C23">
-        <v>3.5640000000000001</v>
-      </c>
-      <c r="D23">
-        <v>3.1880000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.6160000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45077</v>
-      </c>
-      <c r="B24">
-        <v>3.121</v>
+        <v>36311</v>
       </c>
       <c r="C24">
-        <v>3.153</v>
-      </c>
-      <c r="D24">
-        <v>2.7069999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.6669999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45044</v>
-      </c>
-      <c r="B25">
-        <v>3.024</v>
+        <v>36341</v>
       </c>
       <c r="C25">
-        <v>3.073</v>
-      </c>
-      <c r="D25">
-        <v>2.6749999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.8889999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45016</v>
-      </c>
-      <c r="B26">
-        <v>2.8780000000000001</v>
+        <v>36371</v>
       </c>
       <c r="C26">
-        <v>2.97</v>
-      </c>
-      <c r="D26">
-        <v>2.673</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.9860000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44985</v>
-      </c>
-      <c r="B27">
-        <v>2.9430000000000001</v>
+        <v>36403</v>
       </c>
       <c r="C27">
-        <v>3.1789999999999998</v>
-      </c>
-      <c r="D27">
-        <v>3.1280000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.0880000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44957</v>
-      </c>
-      <c r="B28">
-        <v>2.5099999999999998</v>
+        <v>36433</v>
       </c>
       <c r="C28">
-        <v>2.7469999999999999</v>
-      </c>
-      <c r="D28">
-        <v>2.6440000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.1509999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44925</v>
-      </c>
-      <c r="B29">
-        <v>2.3159999999999998</v>
+        <v>36462</v>
       </c>
       <c r="C29">
-        <v>2.5550000000000002</v>
-      </c>
-      <c r="D29">
-        <v>2.738</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.4260000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44895</v>
-      </c>
-      <c r="B30">
-        <v>1.8480000000000001</v>
+        <v>36494</v>
       </c>
       <c r="C30">
-        <v>2.1480000000000001</v>
-      </c>
-      <c r="D30">
-        <v>2.1120000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.5019999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44865</v>
-      </c>
-      <c r="B31">
-        <v>1.49</v>
+        <v>36525</v>
       </c>
       <c r="C31">
-        <v>2.0510000000000002</v>
-      </c>
-      <c r="D31">
-        <v>1.927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B32">
-        <v>1.1919999999999999</v>
+        <v>36556</v>
       </c>
       <c r="C32">
-        <v>1.67</v>
-      </c>
-      <c r="D32">
-        <v>1.7470000000000001</v>
+        <v>3.8879999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44804</v>
-      </c>
-      <c r="B33">
-        <v>5.5E-2</v>
+        <v>36585</v>
       </c>
       <c r="C33">
-        <v>0.625</v>
-      </c>
-      <c r="D33">
-        <v>1.1839999999999999</v>
+        <v>3.891</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44771</v>
-      </c>
-      <c r="B34">
-        <v>0.13100000000000001</v>
+        <v>36616</v>
       </c>
       <c r="C34">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="D34">
-        <v>0.26400000000000001</v>
+        <v>4.1390000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44742</v>
-      </c>
-      <c r="B35">
-        <v>-7.4999999999999997E-2</v>
+        <v>36644</v>
       </c>
       <c r="C35">
-        <v>0.38700000000000001</v>
+        <v>4.3460000000000001</v>
       </c>
       <c r="D35">
-        <v>0.63200000000000001</v>
+        <v>4.5940000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44712</v>
-      </c>
-      <c r="B36">
-        <v>-0.27800000000000002</v>
+        <v>36677</v>
       </c>
       <c r="C36">
-        <v>2.3E-2</v>
+        <v>4.7380000000000004</v>
       </c>
       <c r="D36">
-        <v>0.49399999999999999</v>
+        <v>4.9420000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44680</v>
-      </c>
-      <c r="B37">
-        <v>-0.53400000000000003</v>
+        <v>36707</v>
       </c>
       <c r="C37">
-        <v>-0.252</v>
+        <v>4.8710000000000004</v>
       </c>
       <c r="D37">
-        <v>0.254</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44651</v>
-      </c>
-      <c r="B38">
-        <v>-0.63500000000000001</v>
+        <v>36738</v>
       </c>
       <c r="C38">
-        <v>-0.46800000000000003</v>
+        <v>5.0350000000000001</v>
       </c>
       <c r="D38">
-        <v>-0.08</v>
+        <v>5.1059999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44620</v>
-      </c>
-      <c r="B39">
-        <v>-0.72399999999999998</v>
+        <v>36769</v>
       </c>
       <c r="C39">
-        <v>-0.68899999999999995</v>
+        <v>5.1390000000000002</v>
       </c>
       <c r="D39">
-        <v>-0.53900000000000003</v>
+        <v>5.2110000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44592</v>
-      </c>
-      <c r="B40">
-        <v>-0.67500000000000004</v>
+        <v>36798</v>
       </c>
       <c r="C40">
-        <v>-0.67800000000000005</v>
+        <v>5.093</v>
       </c>
       <c r="D40">
-        <v>-0.53600000000000003</v>
+        <v>5.0430000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44561</v>
-      </c>
-      <c r="B41">
-        <v>-0.67900000000000005</v>
+        <v>36830</v>
       </c>
       <c r="C41">
-        <v>-0.66600000000000004</v>
+        <v>5.1719999999999997</v>
       </c>
       <c r="D41">
-        <v>-0.63600000000000001</v>
+        <v>5.0819999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B42">
-        <v>-0.88800000000000001</v>
+        <v>36860</v>
       </c>
       <c r="C42">
-        <v>-0.80200000000000005</v>
+        <v>4.9480000000000004</v>
       </c>
       <c r="D42">
-        <v>-0.746</v>
+        <v>4.8310000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44498</v>
-      </c>
-      <c r="B43">
-        <v>-0.71599999999999997</v>
+        <v>36889</v>
       </c>
       <c r="C43">
-        <v>-0.69</v>
+        <v>4.63</v>
       </c>
       <c r="D43">
-        <v>-0.59099999999999997</v>
+        <v>4.4459999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B44">
-        <v>-0.72299999999999998</v>
+        <v>36922</v>
       </c>
       <c r="C44">
-        <v>-0.68300000000000005</v>
+        <v>4.4649999999999999</v>
       </c>
       <c r="D44">
-        <v>-0.69499999999999995</v>
+        <v>4.3860000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44439</v>
-      </c>
-      <c r="B45">
-        <v>-0.67800000000000005</v>
+        <v>36950</v>
       </c>
       <c r="C45">
-        <v>-0.68300000000000005</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="D45">
-        <v>-0.72199999999999998</v>
+        <v>4.3739999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44407</v>
-      </c>
-      <c r="B46">
-        <v>-0.66100000000000003</v>
+        <v>36980</v>
       </c>
       <c r="C46">
-        <v>-0.66600000000000004</v>
+        <v>4.2880000000000003</v>
       </c>
       <c r="D46">
-        <v>-0.76700000000000002</v>
+        <v>4.1379999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44377</v>
-      </c>
-      <c r="B47">
-        <v>-0.61799999999999999</v>
+        <v>37011</v>
       </c>
       <c r="C47">
-        <v>-0.64100000000000001</v>
+        <v>4.7469999999999999</v>
       </c>
       <c r="D47">
-        <v>-0.66700000000000004</v>
+        <v>4.6260000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44347</v>
-      </c>
-      <c r="B48">
-        <v>-0.63600000000000001</v>
+        <v>37042</v>
       </c>
       <c r="C48">
-        <v>-0.65400000000000003</v>
+        <v>4.3940000000000001</v>
       </c>
       <c r="D48">
-        <v>-0.66800000000000004</v>
+        <v>4.3860000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44316</v>
-      </c>
-      <c r="B49">
-        <v>-0.628</v>
+        <v>37071</v>
       </c>
       <c r="C49">
-        <v>-0.65</v>
+        <v>4.2649999999999997</v>
       </c>
       <c r="D49">
-        <v>-0.69</v>
+        <v>4.2809999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44286</v>
-      </c>
-      <c r="B50">
-        <v>-0.61399999999999999</v>
+        <v>37103</v>
       </c>
       <c r="C50">
-        <v>-0.65600000000000003</v>
+        <v>4.1749999999999998</v>
       </c>
       <c r="D50">
-        <v>-0.69499999999999995</v>
+        <v>4.1340000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44253</v>
-      </c>
-      <c r="B51">
-        <v>-0.59299999999999997</v>
+        <v>37134</v>
       </c>
       <c r="C51">
-        <v>-0.624</v>
+        <v>3.996</v>
       </c>
       <c r="D51">
-        <v>-0.66800000000000004</v>
+        <v>3.9470000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44225</v>
-      </c>
-      <c r="B52">
-        <v>-0.61799999999999999</v>
+        <v>37162</v>
       </c>
       <c r="C52">
-        <v>-0.67100000000000004</v>
+        <v>3.456</v>
       </c>
       <c r="D52">
-        <v>-0.73799999999999999</v>
+        <v>3.4809999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44196</v>
-      </c>
-      <c r="B53">
-        <v>-0.72899999999999998</v>
+        <v>37195</v>
       </c>
       <c r="C53">
-        <v>-0.73499999999999999</v>
+        <v>3.2069999999999999</v>
       </c>
       <c r="D53">
-        <v>-0.71499999999999997</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44165</v>
-      </c>
-      <c r="B54">
-        <v>-0.68799999999999994</v>
+        <v>37225</v>
       </c>
       <c r="C54">
-        <v>-0.69899999999999995</v>
+        <v>3.1629999999999998</v>
       </c>
       <c r="D54">
-        <v>-0.749</v>
+        <v>3.387</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44134</v>
-      </c>
-      <c r="B55">
-        <v>-0.72399999999999998</v>
+        <v>37256</v>
       </c>
       <c r="C55">
-        <v>-0.73299999999999998</v>
+        <v>3.3090000000000002</v>
       </c>
       <c r="D55">
-        <v>-0.79800000000000004</v>
+        <v>3.649</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44104</v>
-      </c>
-      <c r="B56">
-        <v>-0.59499999999999997</v>
+        <v>37287</v>
       </c>
       <c r="C56">
-        <v>-0.61299999999999999</v>
+        <v>3.504</v>
       </c>
       <c r="D56">
-        <v>-0.70499999999999996</v>
+        <v>3.9020000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44074</v>
-      </c>
-      <c r="B57">
-        <v>-0.58399999999999996</v>
+        <v>37315</v>
       </c>
       <c r="C57">
-        <v>-0.57599999999999996</v>
+        <v>3.4889999999999999</v>
       </c>
       <c r="D57">
-        <v>-0.65800000000000003</v>
+        <v>3.8719999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44043</v>
-      </c>
-      <c r="B58">
-        <v>-0.61099999999999999</v>
+        <v>37344</v>
       </c>
       <c r="C58">
-        <v>-0.58299999999999996</v>
+        <v>3.9079999999999999</v>
       </c>
       <c r="D58">
-        <v>-0.72</v>
+        <v>4.3339999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44012</v>
-      </c>
-      <c r="B59">
-        <v>-0.53700000000000003</v>
+        <v>37376</v>
       </c>
       <c r="C59">
-        <v>-0.57799999999999996</v>
+        <v>3.6779999999999999</v>
       </c>
       <c r="D59">
-        <v>-0.69499999999999995</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43980</v>
-      </c>
-      <c r="B60">
-        <v>-0.53300000000000003</v>
+        <v>37407</v>
       </c>
       <c r="C60">
-        <v>-0.59</v>
+        <v>3.9729999999999999</v>
       </c>
       <c r="D60">
-        <v>-0.66800000000000004</v>
+        <v>4.2469999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>43951</v>
-      </c>
-      <c r="B61">
-        <v>-0.54</v>
+        <v>37435</v>
       </c>
       <c r="C61">
-        <v>-0.55900000000000005</v>
+        <v>3.681</v>
       </c>
       <c r="D61">
-        <v>-0.77700000000000002</v>
+        <v>3.9249999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B62">
-        <v>-0.69599999999999995</v>
+        <v>37468</v>
       </c>
       <c r="C62">
-        <v>-0.69599999999999995</v>
+        <v>3.4079999999999999</v>
       </c>
       <c r="D62">
-        <v>-0.70199999999999996</v>
+        <v>3.6179999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B63">
-        <v>-0.61199999999999999</v>
+        <v>37498</v>
       </c>
       <c r="C63">
-        <v>-0.74099999999999999</v>
+        <v>3.33</v>
       </c>
       <c r="D63">
-        <v>-0.77600000000000002</v>
+        <v>3.4769999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43861</v>
-      </c>
-      <c r="B64">
-        <v>-0.55300000000000005</v>
+        <v>37529</v>
       </c>
       <c r="C64">
-        <v>-0.61899999999999999</v>
+        <v>3.0430000000000001</v>
       </c>
       <c r="D64">
-        <v>-0.67400000000000004</v>
+        <v>3.0710000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43830</v>
-      </c>
-      <c r="B65">
-        <v>-0.61199999999999999</v>
+        <v>37560</v>
       </c>
       <c r="C65">
-        <v>-0.65500000000000003</v>
+        <v>3.0270000000000001</v>
       </c>
       <c r="D65">
-        <v>-0.61199999999999999</v>
+        <v>3.081</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43798</v>
+        <v>37589</v>
       </c>
       <c r="B66">
-        <v>-0.59499999999999997</v>
+        <v>2.9</v>
       </c>
       <c r="C66">
-        <v>-0.63700000000000001</v>
+        <v>2.95</v>
       </c>
       <c r="D66">
-        <v>-0.63600000000000001</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43769</v>
+        <v>37621</v>
       </c>
       <c r="B67">
-        <v>-0.60599999999999998</v>
+        <v>2.76</v>
       </c>
       <c r="C67">
-        <v>-0.65400000000000003</v>
+        <v>2.6539999999999999</v>
       </c>
       <c r="D67">
-        <v>-0.66800000000000004</v>
+        <v>2.7210000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43738</v>
+        <v>37652</v>
       </c>
       <c r="B68">
-        <v>-0.623</v>
+        <v>2.6539999999999999</v>
       </c>
       <c r="C68">
-        <v>-0.69699999999999995</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="D68">
-        <v>-0.77300000000000002</v>
+        <v>2.5960000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43707</v>
+        <v>37680</v>
       </c>
       <c r="B69">
-        <v>-0.73699999999999999</v>
+        <v>2.38</v>
       </c>
       <c r="C69">
-        <v>-0.85899999999999999</v>
+        <v>2.2930000000000001</v>
       </c>
       <c r="D69">
-        <v>-0.93300000000000005</v>
+        <v>2.2949999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43677</v>
+        <v>37711</v>
       </c>
       <c r="B70">
-        <v>-0.59499999999999997</v>
+        <v>2.36</v>
       </c>
       <c r="C70">
-        <v>-0.71499999999999997</v>
+        <v>2.331</v>
       </c>
       <c r="D70">
-        <v>-0.78500000000000003</v>
+        <v>2.407</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43644</v>
+        <v>37741</v>
       </c>
       <c r="B71">
-        <v>-0.56999999999999995</v>
+        <v>2.3780000000000001</v>
       </c>
       <c r="C71">
-        <v>-0.68300000000000005</v>
+        <v>2.327</v>
       </c>
       <c r="D71">
-        <v>-0.75800000000000001</v>
+        <v>2.427</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43616</v>
+        <v>37771</v>
       </c>
       <c r="B72">
-        <v>-0.55100000000000005</v>
+        <v>2.1440000000000001</v>
       </c>
       <c r="C72">
-        <v>-0.63</v>
+        <v>2.0920000000000001</v>
       </c>
       <c r="D72">
-        <v>-0.67300000000000004</v>
+        <v>2.1160000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43585</v>
+        <v>37802</v>
       </c>
       <c r="B73">
-        <v>-0.52900000000000003</v>
+        <v>2.0190000000000001</v>
       </c>
       <c r="C73">
-        <v>-0.56599999999999995</v>
+        <v>1.986</v>
       </c>
       <c r="D73">
-        <v>-0.59</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43553</v>
+        <v>37833</v>
       </c>
       <c r="B74">
-        <v>-0.55000000000000004</v>
+        <v>2.0670000000000002</v>
       </c>
       <c r="C74">
-        <v>-0.58199999999999996</v>
+        <v>2.129</v>
       </c>
       <c r="D74">
-        <v>-0.61099999999999999</v>
+        <v>2.456</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43524</v>
+        <v>37862</v>
       </c>
       <c r="B75">
-        <v>-0.56000000000000005</v>
+        <v>2.1240000000000001</v>
       </c>
       <c r="C75">
-        <v>-0.55800000000000005</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="D75">
-        <v>-0.52800000000000002</v>
+        <v>2.593</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43496</v>
+        <v>37894</v>
       </c>
       <c r="B76">
-        <v>-0.54900000000000004</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="C76">
-        <v>-0.54100000000000004</v>
+        <v>2.048</v>
       </c>
       <c r="D76">
-        <v>-0.56899999999999995</v>
+        <v>2.2970000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43465</v>
+        <v>37925</v>
       </c>
       <c r="B77">
-        <v>-0.745</v>
+        <v>2.141</v>
       </c>
       <c r="C77">
-        <v>-0.64600000000000002</v>
+        <v>2.2919999999999998</v>
       </c>
       <c r="D77">
-        <v>-0.62</v>
+        <v>2.6859999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43434</v>
+        <v>37953</v>
       </c>
       <c r="B78">
-        <v>-0.64700000000000002</v>
+        <v>2.1659999999999999</v>
       </c>
       <c r="C78">
-        <v>-0.66700000000000004</v>
+        <v>2.355</v>
       </c>
       <c r="D78">
-        <v>-0.60199999999999998</v>
+        <v>2.8119999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43404</v>
+        <v>37986</v>
       </c>
       <c r="B79">
-        <v>-0.72199999999999998</v>
+        <v>2.089</v>
       </c>
       <c r="C79">
-        <v>-0.69399999999999995</v>
+        <v>2.2080000000000002</v>
       </c>
       <c r="D79">
-        <v>-0.624</v>
+        <v>2.605</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43371</v>
+        <v>38016</v>
       </c>
       <c r="B80">
-        <v>-0.59899999999999998</v>
+        <v>2.0720000000000001</v>
       </c>
       <c r="C80">
-        <v>-0.62</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="D80">
-        <v>-0.53200000000000003</v>
+        <v>2.524</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43343</v>
+        <v>38044</v>
       </c>
       <c r="B81">
-        <v>-0.61399999999999999</v>
+        <v>1.9830000000000001</v>
       </c>
       <c r="C81">
-        <v>-0.64900000000000002</v>
+        <v>2.0030000000000001</v>
       </c>
       <c r="D81">
-        <v>-0.61099999999999999</v>
+        <v>2.2149999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43312</v>
+        <v>38077</v>
       </c>
       <c r="B82">
-        <v>-0.58899999999999997</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="C82">
-        <v>-0.66</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="D82">
-        <v>-0.57899999999999996</v>
+        <v>2.1339999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43280</v>
+        <v>38107</v>
       </c>
       <c r="B83">
-        <v>-0.60099999999999998</v>
+        <v>2.0489999999999999</v>
       </c>
       <c r="C83">
-        <v>-0.67100000000000004</v>
+        <v>2.125</v>
       </c>
       <c r="D83">
-        <v>-0.67400000000000004</v>
+        <v>2.4390000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43251</v>
+        <v>38138</v>
       </c>
       <c r="B84">
-        <v>-0.60299999999999998</v>
+        <v>2.0840000000000001</v>
       </c>
       <c r="C84">
-        <v>-0.67500000000000004</v>
+        <v>2.2989999999999999</v>
       </c>
       <c r="D84">
-        <v>-0.66700000000000004</v>
+        <v>2.5779999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43220</v>
+        <v>38168</v>
       </c>
       <c r="B85">
-        <v>-0.64600000000000002</v>
+        <v>2.1030000000000002</v>
       </c>
       <c r="C85">
-        <v>-0.66</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="D85">
-        <v>-0.59199999999999997</v>
+        <v>2.7229999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43189</v>
+        <v>38198</v>
       </c>
       <c r="B86">
-        <v>-0.63700000000000001</v>
+        <v>2.1179999999999999</v>
       </c>
       <c r="C86">
-        <v>-0.69399999999999995</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="D86">
-        <v>-0.61399999999999999</v>
+        <v>2.6259999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43159</v>
+        <v>38230</v>
       </c>
       <c r="B87">
-        <v>-0.61</v>
+        <v>2.1</v>
       </c>
       <c r="C87">
-        <v>-0.68300000000000005</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="D87">
-        <v>-0.54800000000000004</v>
+        <v>2.415</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43131</v>
+        <v>38260</v>
       </c>
       <c r="B88">
-        <v>-0.68400000000000005</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="C88">
-        <v>-0.627</v>
+        <v>2.3149999999999999</v>
       </c>
       <c r="D88">
-        <v>-0.53500000000000003</v>
+        <v>2.5830000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43098</v>
+        <v>38289</v>
       </c>
       <c r="B89">
-        <v>-0.69399999999999995</v>
+        <v>2.1459999999999999</v>
       </c>
       <c r="C89">
-        <v>-0.68799999999999994</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="D89">
-        <v>-0.63900000000000001</v>
+        <v>2.4289999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43069</v>
+        <v>38321</v>
       </c>
       <c r="B90">
-        <v>-0.73699999999999999</v>
+        <v>2.1469999999999998</v>
       </c>
       <c r="C90">
-        <v>-0.74399999999999999</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="D90">
-        <v>-0.69</v>
+        <v>2.351</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43039</v>
+        <v>38352</v>
       </c>
       <c r="B91">
-        <v>-0.73099999999999998</v>
+        <v>2.1389999999999998</v>
       </c>
       <c r="C91">
-        <v>-0.77400000000000002</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="D91">
-        <v>-0.754</v>
+        <v>2.4809999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43007</v>
+        <v>38383</v>
       </c>
       <c r="B92">
-        <v>-0.73299999999999998</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="C92">
-        <v>-0.74099999999999999</v>
+        <v>2.2120000000000002</v>
       </c>
       <c r="D92">
-        <v>-0.69699999999999995</v>
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>42978</v>
+        <v>38411</v>
       </c>
       <c r="B93">
-        <v>-0.67200000000000004</v>
+        <v>2.1379999999999999</v>
       </c>
       <c r="C93">
-        <v>-0.75700000000000001</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="D93">
-        <v>-0.73299999999999998</v>
+        <v>2.4910000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>42947</v>
+        <v>38442</v>
       </c>
       <c r="B94">
-        <v>-0.66200000000000003</v>
+        <v>2.133</v>
       </c>
       <c r="C94">
-        <v>-0.69399999999999995</v>
+        <v>2.2610000000000001</v>
       </c>
       <c r="D94">
-        <v>-0.68799999999999994</v>
+        <v>2.492</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>42916</v>
+        <v>38471</v>
       </c>
       <c r="B95">
-        <v>-0.65800000000000003</v>
+        <v>2.0790000000000002</v>
       </c>
       <c r="C95">
-        <v>-0.68700000000000006</v>
+        <v>2.1150000000000002</v>
       </c>
       <c r="D95">
-        <v>-0.58099999999999996</v>
+        <v>2.2480000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>42886</v>
+        <v>38503</v>
       </c>
       <c r="B96">
-        <v>-0.67900000000000005</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="C96">
-        <v>-0.78100000000000003</v>
+        <v>2.0710000000000002</v>
       </c>
       <c r="D96">
-        <v>-0.72299999999999998</v>
+        <v>2.141</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>42853</v>
+        <v>38533</v>
       </c>
       <c r="B97">
-        <v>-0.76200000000000001</v>
+        <v>2.0609999999999999</v>
       </c>
       <c r="C97">
-        <v>-0.76900000000000002</v>
+        <v>2.0030000000000001</v>
       </c>
       <c r="D97">
-        <v>-0.74</v>
+        <v>2.0230000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>42825</v>
+        <v>38562</v>
       </c>
       <c r="B98">
-        <v>-0.82799999999999996</v>
+        <v>2.0939999999999999</v>
       </c>
       <c r="C98">
-        <v>-0.76200000000000001</v>
+        <v>2.1459999999999999</v>
       </c>
       <c r="D98">
-        <v>-0.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>42794</v>
+        <v>38595</v>
       </c>
       <c r="B99">
-        <v>-0.84</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="C99">
-        <v>-0.91500000000000004</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="D99">
-        <v>-0.90900000000000003</v>
+        <v>2.1989999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>42766</v>
+        <v>38625</v>
       </c>
       <c r="B100">
-        <v>-0.80400000000000005</v>
+        <v>2.1309999999999998</v>
       </c>
       <c r="C100">
-        <v>-0.69099999999999995</v>
+        <v>2.2639999999999998</v>
       </c>
       <c r="D100">
-        <v>-0.71</v>
+        <v>2.3940000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>42734</v>
+        <v>38656</v>
       </c>
       <c r="B101">
-        <v>-0.77100000000000002</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="C101">
-        <v>-0.85199999999999998</v>
+        <v>2.4670000000000001</v>
       </c>
       <c r="D101">
-        <v>-0.8</v>
+        <v>2.629</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>42704</v>
+        <v>38686</v>
       </c>
       <c r="B102">
-        <v>-0.76700000000000002</v>
+        <v>2.5110000000000001</v>
       </c>
       <c r="C102">
-        <v>-0.82099999999999995</v>
+        <v>2.637</v>
       </c>
       <c r="D102">
-        <v>-0.73499999999999999</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>42674</v>
+        <v>38716</v>
       </c>
       <c r="B103">
-        <v>-0.71799999999999997</v>
+        <v>2.54</v>
       </c>
       <c r="C103">
-        <v>-0.71299999999999997</v>
+        <v>2.7240000000000002</v>
       </c>
       <c r="D103">
-        <v>-0.626</v>
+        <v>2.8620000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>42643</v>
+        <v>38748</v>
       </c>
       <c r="B104">
-        <v>-0.70199999999999996</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="C104">
-        <v>-0.68100000000000005</v>
+        <v>2.7629999999999999</v>
       </c>
       <c r="D104">
-        <v>-0.69299999999999995</v>
+        <v>2.9550000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>42613</v>
+        <v>38776</v>
       </c>
       <c r="B105">
-        <v>-0.60099999999999998</v>
+        <v>2.6619999999999999</v>
       </c>
       <c r="C105">
-        <v>-0.625</v>
+        <v>2.8210000000000002</v>
       </c>
       <c r="D105">
-        <v>-0.625</v>
+        <v>3.0209999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>42580</v>
+        <v>38807</v>
       </c>
       <c r="B106">
-        <v>-0.64900000000000002</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="C106">
-        <v>-0.621</v>
+        <v>3.117</v>
       </c>
       <c r="D106">
-        <v>-0.63200000000000001</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>42551</v>
+        <v>38835</v>
       </c>
       <c r="B107">
-        <v>-0.65600000000000003</v>
+        <v>2.8660000000000001</v>
       </c>
       <c r="C107">
-        <v>-0.63800000000000001</v>
+        <v>3.13</v>
       </c>
       <c r="D107">
-        <v>-0.66300000000000003</v>
+        <v>3.379</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B108">
-        <v>-0.56499999999999995</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="C108">
-        <v>-0.55200000000000005</v>
+        <v>3.1779999999999999</v>
       </c>
       <c r="D108">
-        <v>-0.51700000000000002</v>
+        <v>3.355</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>42489</v>
+        <v>38898</v>
       </c>
       <c r="B109">
-        <v>-0.53600000000000003</v>
+        <v>3.0640000000000001</v>
       </c>
       <c r="C109">
-        <v>-0.52200000000000002</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="D109">
-        <v>-0.48499999999999999</v>
+        <v>3.5739999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>42460</v>
+        <v>38929</v>
       </c>
       <c r="B110">
-        <v>-0.46300000000000002</v>
+        <v>3.1669999999999998</v>
       </c>
       <c r="C110">
-        <v>-0.48299999999999998</v>
+        <v>3.37</v>
       </c>
       <c r="D110">
-        <v>-0.48899999999999999</v>
+        <v>3.512</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>42429</v>
+        <v>38960</v>
       </c>
       <c r="B111">
-        <v>-0.47699999999999998</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="C111">
-        <v>-0.51500000000000001</v>
+        <v>3.4689999999999999</v>
       </c>
       <c r="D111">
-        <v>-0.57399999999999995</v>
+        <v>3.5219999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>42398</v>
+        <v>38989</v>
       </c>
       <c r="B112">
-        <v>-0.41699999999999998</v>
+        <v>3.4209999999999998</v>
       </c>
       <c r="C112">
-        <v>-0.46899999999999997</v>
+        <v>3.6080000000000001</v>
       </c>
       <c r="D112">
-        <v>-0.49</v>
+        <v>3.585</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>42369</v>
+        <v>39021</v>
       </c>
       <c r="B113">
-        <v>-0.39600000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="C113">
-        <v>-0.38900000000000001</v>
+        <v>3.6859999999999999</v>
       </c>
       <c r="D113">
-        <v>-0.34899999999999998</v>
+        <v>3.6779999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>42338</v>
+        <v>39051</v>
       </c>
       <c r="B114">
-        <v>-0.372</v>
+        <v>3.581</v>
       </c>
       <c r="C114">
-        <v>-0.38600000000000001</v>
+        <v>3.6960000000000002</v>
       </c>
       <c r="D114">
-        <v>-0.41899999999999998</v>
+        <v>3.6579999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>42307</v>
+        <v>39080</v>
       </c>
       <c r="B115">
-        <v>-0.33600000000000002</v>
+        <v>3.6949999999999998</v>
       </c>
       <c r="C115">
-        <v>-0.374</v>
+        <v>3.8780000000000001</v>
       </c>
       <c r="D115">
-        <v>-0.317</v>
+        <v>3.903</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>42277</v>
+        <v>39113</v>
       </c>
       <c r="B116">
-        <v>-0.27100000000000002</v>
+        <v>3.786</v>
       </c>
       <c r="C116">
-        <v>-0.29599999999999999</v>
+        <v>3.9569999999999999</v>
       </c>
       <c r="D116">
-        <v>-0.255</v>
+        <v>3.968</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>42247</v>
+        <v>39141</v>
       </c>
       <c r="B117">
-        <v>-0.23899999999999999</v>
+        <v>3.823</v>
       </c>
       <c r="C117">
-        <v>-0.28699999999999998</v>
+        <v>3.9430000000000001</v>
       </c>
       <c r="D117">
-        <v>-0.20699999999999999</v>
+        <v>3.8759999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>42216</v>
+        <v>39171</v>
       </c>
       <c r="B118">
-        <v>-0.249</v>
+        <v>3.9279999999999999</v>
       </c>
       <c r="C118">
-        <v>-0.246</v>
+        <v>4.0720000000000001</v>
       </c>
       <c r="D118">
-        <v>-0.23499999999999999</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>42185</v>
+        <v>39202</v>
       </c>
       <c r="B119">
-        <v>-0.24</v>
+        <v>3.968</v>
       </c>
       <c r="C119">
-        <v>-0.26</v>
+        <v>4.16</v>
       </c>
       <c r="D119">
-        <v>-0.22900000000000001</v>
+        <v>4.1280000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>42153</v>
+        <v>39233</v>
       </c>
       <c r="B120">
-        <v>-0.22600000000000001</v>
+        <v>4.1029999999999998</v>
       </c>
       <c r="C120">
-        <v>-0.251</v>
+        <v>4.3250000000000002</v>
       </c>
       <c r="D120">
-        <v>-0.22900000000000001</v>
+        <v>4.3940000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>42124</v>
+        <v>39262</v>
       </c>
       <c r="B121">
-        <v>-0.26400000000000001</v>
+        <v>4.1260000000000003</v>
       </c>
       <c r="C121">
-        <v>-0.27900000000000003</v>
+        <v>4.4059999999999997</v>
       </c>
       <c r="D121">
-        <v>-0.224</v>
+        <v>4.4619999999999997</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>42094</v>
+        <v>39294</v>
       </c>
       <c r="B122">
-        <v>-0.21299999999999999</v>
+        <v>4.18</v>
       </c>
       <c r="C122">
-        <v>-0.24399999999999999</v>
+        <v>4.3810000000000002</v>
       </c>
       <c r="D122">
-        <v>-0.255</v>
+        <v>4.2990000000000004</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>42062</v>
+        <v>39325</v>
       </c>
       <c r="B123">
-        <v>-0.22</v>
+        <v>3.9660000000000002</v>
       </c>
       <c r="C123">
-        <v>-0.21</v>
+        <v>4.0949999999999998</v>
       </c>
       <c r="D123">
-        <v>-0.22900000000000001</v>
+        <v>4.0129999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>42034</v>
+        <v>39353</v>
       </c>
       <c r="B124">
-        <v>-0.14899999999999999</v>
+        <v>3.919</v>
       </c>
       <c r="C124">
-        <v>-0.16800000000000001</v>
+        <v>4.0339999999999998</v>
       </c>
       <c r="D124">
-        <v>-0.187</v>
+        <v>4.0279999999999996</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>42004</v>
+        <v>39386</v>
       </c>
       <c r="B125">
-        <v>-9.7000000000000003E-2</v>
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>-9.4E-2</v>
+        <v>4.16</v>
       </c>
       <c r="D125">
-        <v>-0.11</v>
+        <v>4.056</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>41971</v>
+        <v>39416</v>
       </c>
       <c r="B126">
-        <v>-8.1000000000000003E-2</v>
+        <v>3.9409999999999998</v>
       </c>
       <c r="C126">
-        <v>-0.08</v>
+        <v>4.0190000000000001</v>
       </c>
       <c r="D126">
-        <v>-3.4000000000000002E-2</v>
+        <v>3.831</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>41943</v>
+        <v>39447</v>
       </c>
       <c r="B127">
-        <v>-9.6000000000000002E-2</v>
+        <v>3.89</v>
       </c>
       <c r="C127">
-        <v>-6.9000000000000006E-2</v>
+        <v>4.0659999999999998</v>
       </c>
       <c r="D127">
-        <v>-5.8000000000000003E-2</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>41912</v>
+        <v>39478</v>
       </c>
       <c r="B128">
-        <v>-6.7000000000000004E-2</v>
+        <v>3.8210000000000002</v>
       </c>
       <c r="C128">
-        <v>-7.6999999999999999E-2</v>
+        <v>3.6989999999999998</v>
       </c>
       <c r="D128">
-        <v>-8.3000000000000004E-2</v>
+        <v>3.3730000000000002</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>41880</v>
+        <v>39507</v>
       </c>
       <c r="B129">
-        <v>-2.9000000000000001E-2</v>
+        <v>3.8210000000000002</v>
       </c>
       <c r="C129">
-        <v>-2.9000000000000001E-2</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="D129">
-        <v>-3.3000000000000002E-2</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>41851</v>
+        <v>39538</v>
       </c>
       <c r="B130">
-        <v>6.0000000000000001E-3</v>
+        <v>3.6520000000000001</v>
       </c>
       <c r="C130">
-        <v>8.0000000000000002E-3</v>
+        <v>3.77</v>
       </c>
       <c r="D130">
-        <v>2.1999999999999999E-2</v>
+        <v>3.431</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>41820</v>
+        <v>39568</v>
       </c>
       <c r="B131">
-        <v>7.0000000000000001E-3</v>
+        <v>3.863</v>
       </c>
       <c r="C131">
-        <v>0.01</v>
+        <v>4.0270000000000001</v>
       </c>
       <c r="D131">
-        <v>2.5000000000000001E-2</v>
+        <v>3.7570000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>41789</v>
+        <v>39598</v>
       </c>
       <c r="B132">
-        <v>5.8000000000000003E-2</v>
+        <v>4.024</v>
       </c>
       <c r="C132">
-        <v>6.4000000000000001E-2</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="D132">
-        <v>6.0999999999999999E-2</v>
+        <v>4.3159999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>41759</v>
+        <v>39629</v>
       </c>
       <c r="B133">
-        <v>0.11</v>
+        <v>4.3630000000000004</v>
       </c>
       <c r="C133">
-        <v>0.14299999999999999</v>
+        <v>4.6790000000000003</v>
       </c>
       <c r="D133">
-        <v>0.14000000000000001</v>
+        <v>4.5970000000000004</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>41729</v>
+        <v>39660</v>
       </c>
       <c r="B134">
-        <v>0.123</v>
+        <v>4.3120000000000003</v>
       </c>
       <c r="C134">
-        <v>0.14000000000000001</v>
+        <v>4.45</v>
       </c>
       <c r="D134">
-        <v>0.158</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>41698</v>
+        <v>39689</v>
       </c>
       <c r="B135">
-        <v>9.8000000000000004E-2</v>
+        <v>4.258</v>
       </c>
       <c r="C135">
-        <v>0.111</v>
+        <v>4.3209999999999997</v>
       </c>
       <c r="D135">
-        <v>0.127</v>
+        <v>4.1109999999999998</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>41670</v>
+        <v>39721</v>
       </c>
       <c r="B136">
-        <v>8.2000000000000003E-2</v>
+        <v>3.0830000000000002</v>
       </c>
       <c r="C136">
-        <v>5.7000000000000002E-2</v>
+        <v>3.335</v>
       </c>
       <c r="D136">
-        <v>6.6000000000000003E-2</v>
+        <v>3.476</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>41639</v>
+        <v>39752</v>
       </c>
       <c r="B137">
-        <v>0.14399999999999999</v>
+        <v>2.137</v>
       </c>
       <c r="C137">
-        <v>0.13700000000000001</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="D137">
-        <v>0.20699999999999999</v>
+        <v>2.5419999999999998</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>41607</v>
+        <v>39780</v>
       </c>
       <c r="B138">
-        <v>6.0999999999999999E-2</v>
+        <v>1.915</v>
       </c>
       <c r="C138">
-        <v>7.9000000000000001E-2</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="D138">
-        <v>0.114</v>
+        <v>2.1880000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>41578</v>
+        <v>39813</v>
       </c>
       <c r="B139">
-        <v>3.5000000000000003E-2</v>
+        <v>1.583</v>
       </c>
       <c r="C139">
-        <v>6.2E-2</v>
+        <v>1.714</v>
       </c>
       <c r="D139">
-        <v>0.113</v>
+        <v>1.7549999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>41547</v>
+        <v>39843</v>
       </c>
       <c r="B140">
-        <v>2.9000000000000001E-2</v>
+        <v>1.087</v>
       </c>
       <c r="C140">
-        <v>9.0999999999999998E-2</v>
+        <v>1.161</v>
       </c>
       <c r="D140">
-        <v>0.16600000000000001</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>41516</v>
+        <v>39871</v>
       </c>
       <c r="B141">
-        <v>2.3E-2</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="C141">
-        <v>0.10199999999999999</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="D141">
-        <v>0.23499999999999999</v>
+        <v>1.3109999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>41486</v>
+        <v>39903</v>
       </c>
       <c r="B142">
-        <v>4.0000000000000001E-3</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="C142">
-        <v>0.05</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D142">
-        <v>0.15</v>
+        <v>1.2350000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>41453</v>
+        <v>39933</v>
       </c>
       <c r="B143">
-        <v>7.0000000000000001E-3</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C143">
-        <v>8.5999999999999993E-2</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D143">
-        <v>0.187</v>
+        <v>1.337</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>41425</v>
+        <v>39962</v>
       </c>
       <c r="B144">
-        <v>4.0000000000000001E-3</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="C144">
-        <v>1E-3</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D144">
-        <v>6.7000000000000004E-2</v>
+        <v>1.419</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>41394</v>
+        <v>39994</v>
       </c>
       <c r="B145">
-        <v>-1.6E-2</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="C145">
-        <v>3.0000000000000001E-3</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="D145">
-        <v>1.0999999999999999E-2</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>41362</v>
+        <v>40025</v>
       </c>
       <c r="B146">
-        <v>-4.0000000000000001E-3</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C146">
-        <v>8.0000000000000002E-3</v>
+        <v>0.622</v>
       </c>
       <c r="D146">
-        <v>-2.5999999999999999E-2</v>
+        <v>1.2629999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>41333</v>
+        <v>40056</v>
       </c>
       <c r="B147">
-        <v>-0.01</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="C147">
-        <v>8.0000000000000002E-3</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D147">
-        <v>3.6999999999999998E-2</v>
+        <v>1.244</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>41305</v>
+        <v>40086</v>
       </c>
       <c r="B148">
-        <v>8.5000000000000006E-2</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="C148">
-        <v>0.14299999999999999</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="D148">
-        <v>0.26600000000000001</v>
+        <v>1.2649999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>41274</v>
+        <v>40116</v>
       </c>
       <c r="B149">
-        <v>0.113</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="D149">
-        <v>-2.1000000000000001E-2</v>
+        <v>1.288</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>41243</v>
+        <v>40147</v>
       </c>
       <c r="B150">
-        <v>2.1000000000000001E-2</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C150">
-        <v>-3.0000000000000001E-3</v>
+        <v>0.81</v>
       </c>
       <c r="D150">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2569999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>41213</v>
+        <v>40178</v>
       </c>
       <c r="B151">
-        <v>0.01</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="C151">
-        <v>-5.0000000000000001E-3</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="D151">
-        <v>3.5000000000000003E-2</v>
+        <v>1.331</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>41180</v>
+        <v>40207</v>
       </c>
       <c r="B152">
-        <v>1.0999999999999999E-2</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="C152">
-        <v>-1.7999999999999999E-2</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D152">
-        <v>1.7999999999999999E-2</v>
+        <v>1.1180000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>41152</v>
+        <v>40235</v>
       </c>
       <c r="B153">
-        <v>-6.0999999999999999E-2</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="C153">
-        <v>-1.4999999999999999E-2</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D153">
-        <v>-3.6999999999999998E-2</v>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>41121</v>
+        <v>40268</v>
       </c>
       <c r="B154">
-        <v>-4.1000000000000002E-2</v>
+        <v>0.374</v>
       </c>
       <c r="C154">
-        <v>-5.6000000000000001E-2</v>
+        <v>0.504</v>
       </c>
       <c r="D154">
-        <v>-9.4E-2</v>
+        <v>0.95799999999999996</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>41089</v>
+        <v>40298</v>
       </c>
       <c r="B155">
-        <v>5.8000000000000003E-2</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C155">
-        <v>3.5000000000000003E-2</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D155">
-        <v>0.12</v>
+        <v>0.77100000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>41060</v>
+        <v>40329</v>
       </c>
       <c r="B156">
-        <v>3.3000000000000002E-2</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="C156">
-        <v>8.0000000000000002E-3</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D156">
-        <v>7.0000000000000001E-3</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>41029</v>
+        <v>40359</v>
       </c>
       <c r="B157">
-        <v>2.1999999999999999E-2</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="C157">
-        <v>2.5000000000000001E-2</v>
+        <v>0.432</v>
       </c>
       <c r="D157">
-        <v>7.5999999999999998E-2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>40998</v>
+        <v>40389</v>
       </c>
       <c r="B158">
-        <v>0.17799999999999999</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="C158">
-        <v>0.11799999999999999</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="D158">
-        <v>0.20399999999999999</v>
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>40968</v>
+        <v>40421</v>
       </c>
       <c r="B159">
-        <v>8.6999999999999994E-2</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="C159">
-        <v>0.11899999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D159">
-        <v>0.188</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>40939</v>
+        <v>40451</v>
       </c>
       <c r="B160">
-        <v>0.14599999999999999</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="C160">
-        <v>7.5999999999999998E-2</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D160">
-        <v>0.156</v>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>40907</v>
+        <v>40480</v>
       </c>
       <c r="B161">
-        <v>0.1</v>
+        <v>0.745</v>
       </c>
       <c r="C161">
-        <v>-8.1000000000000003E-2</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D161">
-        <v>0.13900000000000001</v>
+        <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>40877</v>
+        <v>40512</v>
       </c>
       <c r="B162">
-        <v>0.11899999999999999</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C162">
-        <v>-2.4E-2</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="D162">
-        <v>0.33100000000000002</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>40847</v>
+        <v>40543</v>
       </c>
       <c r="B163">
-        <v>0.30399999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="C163">
-        <v>0.38900000000000001</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D163">
-        <v>0.53600000000000003</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>40816</v>
+        <v>40574</v>
       </c>
       <c r="B164">
-        <v>0.41199999999999998</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="C164">
-        <v>0.377</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D164">
-        <v>0.54700000000000004</v>
+        <v>1.3680000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>40786</v>
+        <v>40602</v>
       </c>
       <c r="B165">
-        <v>0.54400000000000004</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="C165">
-        <v>0.63900000000000001</v>
+        <v>1.115</v>
       </c>
       <c r="D165">
-        <v>0.71399999999999997</v>
+        <v>1.5109999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>40753</v>
+        <v>40633</v>
       </c>
       <c r="B166">
-        <v>0.99299999999999999</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="C166">
-        <v>1.1200000000000001</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="D166">
-        <v>1.1579999999999999</v>
+        <v>1.7869999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>40724</v>
+        <v>40662</v>
       </c>
       <c r="B167">
-        <v>1.2649999999999999</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="C167">
-        <v>1.44</v>
+        <v>1.357</v>
       </c>
       <c r="D167">
-        <v>1.603</v>
+        <v>1.7669999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -2785,2038 +2497,2334 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>40662</v>
+        <v>40724</v>
       </c>
       <c r="B169">
-        <v>1.1279999999999999</v>
+        <v>1.2649999999999999</v>
       </c>
       <c r="C169">
-        <v>1.357</v>
+        <v>1.44</v>
       </c>
       <c r="D169">
-        <v>1.7669999999999999</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>40633</v>
+        <v>40753</v>
       </c>
       <c r="B170">
-        <v>0.97599999999999998</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="C170">
-        <v>1.2749999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D170">
-        <v>1.7869999999999999</v>
+        <v>1.1579999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>40602</v>
+        <v>40786</v>
       </c>
       <c r="B171">
-        <v>0.84199999999999997</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="C171">
-        <v>1.115</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D171">
-        <v>1.5109999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>40574</v>
+        <v>40816</v>
       </c>
       <c r="B172">
-        <v>0.76300000000000001</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="C172">
-        <v>0.96299999999999997</v>
+        <v>0.377</v>
       </c>
       <c r="D172">
-        <v>1.3680000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>40543</v>
+        <v>40847</v>
       </c>
       <c r="B173">
-        <v>0.42399999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="C173">
-        <v>0.60299999999999998</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D173">
-        <v>0.86399999999999999</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>40512</v>
+        <v>40877</v>
       </c>
       <c r="B174">
-        <v>0.59099999999999997</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="C174">
-        <v>0.69499999999999995</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="D174">
-        <v>0.85599999999999998</v>
+        <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>40480</v>
+        <v>40907</v>
       </c>
       <c r="B175">
-        <v>0.745</v>
+        <v>0.1</v>
       </c>
       <c r="C175">
-        <v>0.86499999999999999</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="D175">
-        <v>0.98899999999999999</v>
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>40451</v>
+        <v>40939</v>
       </c>
       <c r="B176">
-        <v>0.55700000000000005</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="C176">
-        <v>0.70799999999999996</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D176">
-        <v>0.83399999999999996</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>40421</v>
+        <v>40968</v>
       </c>
       <c r="B177">
-        <v>0.38500000000000001</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C177">
-        <v>0.47599999999999998</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D177">
-        <v>0.59</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>40389</v>
+        <v>40998</v>
       </c>
       <c r="B178">
-        <v>0.39600000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="C178">
-        <v>0.50600000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="D178">
-        <v>0.78400000000000003</v>
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>40359</v>
+        <v>41029</v>
       </c>
       <c r="B179">
-        <v>0.26700000000000002</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C179">
-        <v>0.432</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D179">
-        <v>0.6</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>40329</v>
+        <v>41060</v>
       </c>
       <c r="B180">
-        <v>0.18099999999999999</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C180">
-        <v>0.26300000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D180">
-        <v>0.51400000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>40298</v>
+        <v>41089</v>
       </c>
       <c r="B181">
-        <v>0.30199999999999999</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C181">
-        <v>0.45300000000000001</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D181">
-        <v>0.77100000000000002</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>40268</v>
+        <v>41121</v>
       </c>
       <c r="B182">
-        <v>0.374</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="C182">
-        <v>0.504</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="D182">
-        <v>0.95799999999999996</v>
+        <v>-9.4E-2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>40235</v>
+        <v>41152</v>
       </c>
       <c r="B183">
-        <v>0.35099999999999998</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="C183">
-        <v>0.53600000000000003</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="D183">
-        <v>0.95499999999999996</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>40207</v>
+        <v>41180</v>
       </c>
       <c r="B184">
-        <v>0.35599999999999998</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C184">
-        <v>0.61099999999999999</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D184">
-        <v>1.1180000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>40178</v>
+        <v>41213</v>
       </c>
       <c r="B185">
-        <v>0.46800000000000003</v>
+        <v>0.01</v>
       </c>
       <c r="C185">
-        <v>0.79600000000000004</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D185">
-        <v>1.331</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>40147</v>
+        <v>41243</v>
       </c>
       <c r="B186">
-        <v>0.47399999999999998</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C186">
-        <v>0.81</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D186">
-        <v>1.2569999999999999</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>40116</v>
+        <v>41274</v>
       </c>
       <c r="B187">
-        <v>0.52500000000000002</v>
+        <v>0.113</v>
       </c>
       <c r="C187">
-        <v>0.72299999999999998</v>
+        <v>0</v>
       </c>
       <c r="D187">
-        <v>1.288</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>40086</v>
+        <v>41305</v>
       </c>
       <c r="B188">
-        <v>0.47099999999999997</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C188">
-        <v>0.68200000000000005</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D188">
-        <v>1.2649999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>40056</v>
+        <v>41333</v>
       </c>
       <c r="B189">
-        <v>0.41399999999999998</v>
+        <v>-0.01</v>
       </c>
       <c r="C189">
-        <v>0.59899999999999998</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D189">
-        <v>1.244</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>40025</v>
+        <v>41362</v>
       </c>
       <c r="B190">
-        <v>0.47399999999999998</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C190">
-        <v>0.622</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D190">
-        <v>1.2629999999999999</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>39994</v>
+        <v>41394</v>
       </c>
       <c r="B191">
-        <v>0.64300000000000002</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="C191">
-        <v>0.83199999999999996</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D191">
-        <v>1.365</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>39962</v>
+        <v>41425</v>
       </c>
       <c r="B192">
-        <v>0.75700000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C192">
-        <v>0.94399999999999995</v>
+        <v>1E-3</v>
       </c>
       <c r="D192">
-        <v>1.419</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>39933</v>
+        <v>41453</v>
       </c>
       <c r="B193">
-        <v>0.76200000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C193">
-        <v>0.89700000000000002</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D193">
-        <v>1.337</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>39903</v>
+        <v>41486</v>
       </c>
       <c r="B194">
-        <v>0.68200000000000005</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C194">
-        <v>0.85499999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="D194">
-        <v>1.2350000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>39871</v>
+        <v>41516</v>
       </c>
       <c r="B195">
-        <v>0.86299999999999999</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C195">
-        <v>1.0289999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D195">
-        <v>1.3109999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>39843</v>
+        <v>41547</v>
       </c>
       <c r="B196">
-        <v>1.087</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C196">
-        <v>1.161</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D196">
-        <v>1.532</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>39813</v>
+        <v>41578</v>
       </c>
       <c r="B197">
-        <v>1.583</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C197">
-        <v>1.714</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D197">
-        <v>1.7549999999999999</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>39780</v>
+        <v>41607</v>
       </c>
       <c r="B198">
-        <v>1.915</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="C198">
-        <v>1.9990000000000001</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D198">
-        <v>2.1880000000000002</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>39752</v>
+        <v>41639</v>
       </c>
       <c r="B199">
-        <v>2.137</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="C199">
-        <v>2.5009999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D199">
-        <v>2.5419999999999998</v>
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>39721</v>
+        <v>41670</v>
       </c>
       <c r="B200">
-        <v>3.0830000000000002</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="C200">
-        <v>3.335</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D200">
-        <v>3.476</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>39689</v>
+        <v>41698</v>
       </c>
       <c r="B201">
-        <v>4.258</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="C201">
-        <v>4.3209999999999997</v>
+        <v>0.111</v>
       </c>
       <c r="D201">
-        <v>4.1109999999999998</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>39660</v>
+        <v>41729</v>
       </c>
       <c r="B202">
-        <v>4.3120000000000003</v>
+        <v>0.123</v>
       </c>
       <c r="C202">
-        <v>4.45</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D202">
-        <v>4.26</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>39629</v>
+        <v>41759</v>
       </c>
       <c r="B203">
-        <v>4.3630000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="C203">
-        <v>4.6790000000000003</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D203">
-        <v>4.5970000000000004</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>39598</v>
+        <v>41789</v>
       </c>
       <c r="B204">
-        <v>4.024</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C204">
-        <v>4.2699999999999996</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D204">
-        <v>4.3159999999999998</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>39568</v>
+        <v>41820</v>
       </c>
       <c r="B205">
-        <v>3.863</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C205">
-        <v>4.0270000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="D205">
-        <v>3.7570000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>39538</v>
+        <v>41851</v>
       </c>
       <c r="B206">
-        <v>3.6520000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C206">
-        <v>3.77</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D206">
-        <v>3.431</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>39507</v>
+        <v>41880</v>
       </c>
       <c r="B207">
-        <v>3.8210000000000002</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="C207">
-        <v>3.6509999999999998</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="D207">
-        <v>3.16</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>39478</v>
+        <v>41912</v>
       </c>
       <c r="B208">
-        <v>3.8210000000000002</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="C208">
-        <v>3.6989999999999998</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="D208">
-        <v>3.3730000000000002</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>39447</v>
+        <v>41943</v>
       </c>
       <c r="B209">
-        <v>3.89</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="C209">
-        <v>4.0659999999999998</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="D209">
-        <v>3.964</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>39416</v>
+        <v>41971</v>
       </c>
       <c r="B210">
-        <v>3.9409999999999998</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="C210">
-        <v>4.0190000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="D210">
-        <v>3.831</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>39386</v>
+        <v>42004</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="C211">
-        <v>4.16</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="D211">
-        <v>4.056</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>39353</v>
+        <v>42034</v>
       </c>
       <c r="B212">
-        <v>3.919</v>
+        <v>-0.14899999999999999</v>
       </c>
       <c r="C212">
-        <v>4.0339999999999998</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="D212">
-        <v>4.0279999999999996</v>
+        <v>-0.187</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>39325</v>
+        <v>42062</v>
       </c>
       <c r="B213">
-        <v>3.9660000000000002</v>
+        <v>-0.22</v>
       </c>
       <c r="C213">
-        <v>4.0949999999999998</v>
+        <v>-0.21</v>
       </c>
       <c r="D213">
-        <v>4.0129999999999999</v>
+        <v>-0.22900000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>39294</v>
+        <v>42094</v>
       </c>
       <c r="B214">
-        <v>4.18</v>
+        <v>-0.21299999999999999</v>
       </c>
       <c r="C214">
-        <v>4.3810000000000002</v>
+        <v>-0.24399999999999999</v>
       </c>
       <c r="D214">
-        <v>4.2990000000000004</v>
+        <v>-0.255</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>39262</v>
+        <v>42124</v>
       </c>
       <c r="B215">
-        <v>4.1260000000000003</v>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="C215">
-        <v>4.4059999999999997</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="D215">
-        <v>4.4619999999999997</v>
+        <v>-0.224</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>39233</v>
+        <v>42153</v>
       </c>
       <c r="B216">
-        <v>4.1029999999999998</v>
+        <v>-0.22600000000000001</v>
       </c>
       <c r="C216">
-        <v>4.3250000000000002</v>
+        <v>-0.251</v>
       </c>
       <c r="D216">
-        <v>4.3940000000000001</v>
+        <v>-0.22900000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>39202</v>
+        <v>42185</v>
       </c>
       <c r="B217">
-        <v>3.968</v>
+        <v>-0.24</v>
       </c>
       <c r="C217">
-        <v>4.16</v>
+        <v>-0.26</v>
       </c>
       <c r="D217">
-        <v>4.1280000000000001</v>
+        <v>-0.22900000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>39171</v>
+        <v>42216</v>
       </c>
       <c r="B218">
-        <v>3.9279999999999999</v>
+        <v>-0.249</v>
       </c>
       <c r="C218">
-        <v>4.0720000000000001</v>
+        <v>-0.246</v>
       </c>
       <c r="D218">
-        <v>4.016</v>
+        <v>-0.23499999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>39141</v>
+        <v>42247</v>
       </c>
       <c r="B219">
-        <v>3.823</v>
+        <v>-0.23899999999999999</v>
       </c>
       <c r="C219">
-        <v>3.9430000000000001</v>
+        <v>-0.28699999999999998</v>
       </c>
       <c r="D219">
-        <v>3.8759999999999999</v>
+        <v>-0.20699999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>39113</v>
+        <v>42277</v>
       </c>
       <c r="B220">
-        <v>3.786</v>
+        <v>-0.27100000000000002</v>
       </c>
       <c r="C220">
-        <v>3.9569999999999999</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="D220">
-        <v>3.968</v>
+        <v>-0.255</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>39080</v>
+        <v>42307</v>
       </c>
       <c r="B221">
-        <v>3.6949999999999998</v>
+        <v>-0.33600000000000002</v>
       </c>
       <c r="C221">
-        <v>3.8780000000000001</v>
+        <v>-0.374</v>
       </c>
       <c r="D221">
-        <v>3.903</v>
+        <v>-0.317</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>39051</v>
+        <v>42338</v>
       </c>
       <c r="B222">
-        <v>3.581</v>
+        <v>-0.372</v>
       </c>
       <c r="C222">
-        <v>3.6960000000000002</v>
+        <v>-0.38600000000000001</v>
       </c>
       <c r="D222">
-        <v>3.6579999999999999</v>
+        <v>-0.41899999999999998</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>39021</v>
+        <v>42369</v>
       </c>
       <c r="B223">
-        <v>3.5</v>
+        <v>-0.39600000000000002</v>
       </c>
       <c r="C223">
-        <v>3.6859999999999999</v>
+        <v>-0.38900000000000001</v>
       </c>
       <c r="D223">
-        <v>3.6779999999999999</v>
+        <v>-0.34899999999999998</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>38989</v>
+        <v>42398</v>
       </c>
       <c r="B224">
-        <v>3.4209999999999998</v>
+        <v>-0.41699999999999998</v>
       </c>
       <c r="C224">
-        <v>3.6080000000000001</v>
+        <v>-0.46899999999999997</v>
       </c>
       <c r="D224">
-        <v>3.585</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>38960</v>
+        <v>42429</v>
       </c>
       <c r="B225">
-        <v>3.2959999999999998</v>
+        <v>-0.47699999999999998</v>
       </c>
       <c r="C225">
-        <v>3.4689999999999999</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="D225">
-        <v>3.5219999999999998</v>
+        <v>-0.57399999999999995</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>38929</v>
+        <v>42460</v>
       </c>
       <c r="B226">
-        <v>3.1669999999999998</v>
+        <v>-0.46300000000000002</v>
       </c>
       <c r="C226">
-        <v>3.37</v>
+        <v>-0.48299999999999998</v>
       </c>
       <c r="D226">
-        <v>3.512</v>
+        <v>-0.48899999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>38898</v>
+        <v>42489</v>
       </c>
       <c r="B227">
-        <v>3.0640000000000001</v>
+        <v>-0.53600000000000003</v>
       </c>
       <c r="C227">
-        <v>3.3719999999999999</v>
+        <v>-0.52200000000000002</v>
       </c>
       <c r="D227">
-        <v>3.5739999999999998</v>
+        <v>-0.48499999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>38868</v>
+        <v>42521</v>
       </c>
       <c r="B228">
-        <v>2.9449999999999998</v>
+        <v>-0.56499999999999995</v>
       </c>
       <c r="C228">
-        <v>3.1779999999999999</v>
+        <v>-0.55200000000000005</v>
       </c>
       <c r="D228">
-        <v>3.355</v>
+        <v>-0.51700000000000002</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>38835</v>
+        <v>42551</v>
       </c>
       <c r="B229">
-        <v>2.8660000000000001</v>
+        <v>-0.65600000000000003</v>
       </c>
       <c r="C229">
-        <v>3.13</v>
+        <v>-0.63800000000000001</v>
       </c>
       <c r="D229">
-        <v>3.379</v>
+        <v>-0.66300000000000003</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>38807</v>
+        <v>42580</v>
       </c>
       <c r="B230">
-        <v>2.8359999999999999</v>
+        <v>-0.64900000000000002</v>
       </c>
       <c r="C230">
-        <v>3.117</v>
+        <v>-0.621</v>
       </c>
       <c r="D230">
-        <v>3.29</v>
+        <v>-0.63200000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>38776</v>
+        <v>42613</v>
       </c>
       <c r="B231">
-        <v>2.6619999999999999</v>
+        <v>-0.60099999999999998</v>
       </c>
       <c r="C231">
-        <v>2.8210000000000002</v>
+        <v>-0.625</v>
       </c>
       <c r="D231">
-        <v>3.0209999999999999</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>38748</v>
+        <v>42643</v>
       </c>
       <c r="B232">
-        <v>2.6179999999999999</v>
+        <v>-0.70199999999999996</v>
       </c>
       <c r="C232">
-        <v>2.7629999999999999</v>
+        <v>-0.68100000000000005</v>
       </c>
       <c r="D232">
-        <v>2.9550000000000001</v>
+        <v>-0.69299999999999995</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>38716</v>
+        <v>42674</v>
       </c>
       <c r="B233">
-        <v>2.54</v>
+        <v>-0.71799999999999997</v>
       </c>
       <c r="C233">
-        <v>2.7240000000000002</v>
+        <v>-0.71299999999999997</v>
       </c>
       <c r="D233">
-        <v>2.8620000000000001</v>
+        <v>-0.626</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>38686</v>
+        <v>42704</v>
       </c>
       <c r="B234">
-        <v>2.5110000000000001</v>
+        <v>-0.76700000000000002</v>
       </c>
       <c r="C234">
-        <v>2.637</v>
+        <v>-0.82099999999999995</v>
       </c>
       <c r="D234">
-        <v>2.76</v>
+        <v>-0.73499999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>38656</v>
+        <v>42734</v>
       </c>
       <c r="B235">
-        <v>2.2829999999999999</v>
+        <v>-0.77100000000000002</v>
       </c>
       <c r="C235">
-        <v>2.4670000000000001</v>
+        <v>-0.85199999999999998</v>
       </c>
       <c r="D235">
-        <v>2.629</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>38625</v>
+        <v>42766</v>
       </c>
       <c r="B236">
-        <v>2.1309999999999998</v>
+        <v>-0.80400000000000005</v>
       </c>
       <c r="C236">
-        <v>2.2639999999999998</v>
+        <v>-0.69099999999999995</v>
       </c>
       <c r="D236">
-        <v>2.3940000000000001</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>38595</v>
+        <v>42794</v>
       </c>
       <c r="B237">
-        <v>2.0990000000000002</v>
+        <v>-0.84</v>
       </c>
       <c r="C237">
-        <v>2.1320000000000001</v>
+        <v>-0.91500000000000004</v>
       </c>
       <c r="D237">
-        <v>2.1989999999999998</v>
+        <v>-0.90900000000000003</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>38562</v>
+        <v>42825</v>
       </c>
       <c r="B238">
-        <v>2.0939999999999999</v>
+        <v>-0.82799999999999996</v>
       </c>
       <c r="C238">
-        <v>2.1459999999999999</v>
+        <v>-0.76200000000000001</v>
       </c>
       <c r="D238">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>38533</v>
+        <v>42853</v>
       </c>
       <c r="B239">
-        <v>2.0609999999999999</v>
+        <v>-0.76200000000000001</v>
       </c>
       <c r="C239">
-        <v>2.0030000000000001</v>
+        <v>-0.76900000000000002</v>
       </c>
       <c r="D239">
-        <v>2.0230000000000001</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>38503</v>
+        <v>42886</v>
       </c>
       <c r="B240">
-        <v>2.0750000000000002</v>
+        <v>-0.67900000000000005</v>
       </c>
       <c r="C240">
-        <v>2.0710000000000002</v>
+        <v>-0.78100000000000003</v>
       </c>
       <c r="D240">
-        <v>2.141</v>
+        <v>-0.72299999999999998</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>38471</v>
+        <v>42916</v>
       </c>
       <c r="B241">
-        <v>2.0790000000000002</v>
+        <v>-0.65800000000000003</v>
       </c>
       <c r="C241">
-        <v>2.1150000000000002</v>
+        <v>-0.68700000000000006</v>
       </c>
       <c r="D241">
-        <v>2.2480000000000002</v>
+        <v>-0.58099999999999996</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>38442</v>
+        <v>42947</v>
       </c>
       <c r="B242">
-        <v>2.133</v>
+        <v>-0.66200000000000003</v>
       </c>
       <c r="C242">
-        <v>2.2610000000000001</v>
+        <v>-0.69399999999999995</v>
       </c>
       <c r="D242">
-        <v>2.492</v>
+        <v>-0.68799999999999994</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>38411</v>
+        <v>42978</v>
       </c>
       <c r="B243">
-        <v>2.1379999999999999</v>
+        <v>-0.67200000000000004</v>
       </c>
       <c r="C243">
-        <v>2.2309999999999999</v>
+        <v>-0.75700000000000001</v>
       </c>
       <c r="D243">
-        <v>2.4910000000000001</v>
+        <v>-0.73299999999999998</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>38383</v>
+        <v>43007</v>
       </c>
       <c r="B244">
-        <v>2.1219999999999999</v>
+        <v>-0.73299999999999998</v>
       </c>
       <c r="C244">
-        <v>2.2120000000000002</v>
+        <v>-0.74099999999999999</v>
       </c>
       <c r="D244">
-        <v>2.3980000000000001</v>
+        <v>-0.69699999999999995</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>38352</v>
+        <v>43039</v>
       </c>
       <c r="B245">
-        <v>2.1389999999999998</v>
+        <v>-0.73099999999999998</v>
       </c>
       <c r="C245">
-        <v>2.2850000000000001</v>
+        <v>-0.77400000000000002</v>
       </c>
       <c r="D245">
-        <v>2.4809999999999999</v>
+        <v>-0.754</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>38321</v>
+        <v>43069</v>
       </c>
       <c r="B246">
-        <v>2.1469999999999998</v>
+        <v>-0.73699999999999999</v>
       </c>
       <c r="C246">
-        <v>2.2450000000000001</v>
+        <v>-0.74399999999999999</v>
       </c>
       <c r="D246">
-        <v>2.351</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>38289</v>
+        <v>43098</v>
       </c>
       <c r="B247">
-        <v>2.1459999999999999</v>
+        <v>-0.69399999999999995</v>
       </c>
       <c r="C247">
-        <v>2.2389999999999999</v>
+        <v>-0.68799999999999994</v>
       </c>
       <c r="D247">
-        <v>2.4289999999999998</v>
+        <v>-0.63900000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>38260</v>
+        <v>43131</v>
       </c>
       <c r="B248">
-        <v>2.1360000000000001</v>
+        <v>-0.68400000000000005</v>
       </c>
       <c r="C248">
-        <v>2.3149999999999999</v>
+        <v>-0.627</v>
       </c>
       <c r="D248">
-        <v>2.5830000000000002</v>
+        <v>-0.53500000000000003</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>38230</v>
+        <v>43159</v>
       </c>
       <c r="B249">
-        <v>2.1</v>
+        <v>-0.61</v>
       </c>
       <c r="C249">
-        <v>2.2309999999999999</v>
+        <v>-0.68300000000000005</v>
       </c>
       <c r="D249">
-        <v>2.415</v>
+        <v>-0.54800000000000004</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>38198</v>
+        <v>43189</v>
       </c>
       <c r="B250">
-        <v>2.1179999999999999</v>
+        <v>-0.63700000000000001</v>
       </c>
       <c r="C250">
-        <v>2.2429999999999999</v>
+        <v>-0.69399999999999995</v>
       </c>
       <c r="D250">
-        <v>2.6259999999999999</v>
+        <v>-0.61399999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>38168</v>
+        <v>43220</v>
       </c>
       <c r="B251">
-        <v>2.1030000000000002</v>
+        <v>-0.64600000000000002</v>
       </c>
       <c r="C251">
-        <v>2.3130000000000002</v>
+        <v>-0.66</v>
       </c>
       <c r="D251">
-        <v>2.7229999999999999</v>
+        <v>-0.59199999999999997</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>38138</v>
+        <v>43251</v>
       </c>
       <c r="B252">
-        <v>2.0840000000000001</v>
+        <v>-0.60299999999999998</v>
       </c>
       <c r="C252">
-        <v>2.2989999999999999</v>
+        <v>-0.67500000000000004</v>
       </c>
       <c r="D252">
-        <v>2.5779999999999998</v>
+        <v>-0.66700000000000004</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>38107</v>
+        <v>43280</v>
       </c>
       <c r="B253">
-        <v>2.0489999999999999</v>
+        <v>-0.60099999999999998</v>
       </c>
       <c r="C253">
-        <v>2.125</v>
+        <v>-0.67100000000000004</v>
       </c>
       <c r="D253">
-        <v>2.4390000000000001</v>
+        <v>-0.67400000000000004</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>38077</v>
+        <v>43312</v>
       </c>
       <c r="B254">
-        <v>1.9039999999999999</v>
+        <v>-0.58899999999999997</v>
       </c>
       <c r="C254">
-        <v>1.9019999999999999</v>
+        <v>-0.66</v>
       </c>
       <c r="D254">
-        <v>2.1339999999999999</v>
+        <v>-0.57899999999999996</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>38044</v>
+        <v>43343</v>
       </c>
       <c r="B255">
-        <v>1.9830000000000001</v>
+        <v>-0.61399999999999999</v>
       </c>
       <c r="C255">
-        <v>2.0030000000000001</v>
+        <v>-0.64900000000000002</v>
       </c>
       <c r="D255">
-        <v>2.2149999999999999</v>
+        <v>-0.61099999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>38016</v>
+        <v>43371</v>
       </c>
       <c r="B256">
-        <v>2.0720000000000001</v>
+        <v>-0.59899999999999998</v>
       </c>
       <c r="C256">
-        <v>2.1549999999999998</v>
+        <v>-0.62</v>
       </c>
       <c r="D256">
-        <v>2.524</v>
+        <v>-0.53200000000000003</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>37986</v>
+        <v>43404</v>
       </c>
       <c r="B257">
-        <v>2.089</v>
+        <v>-0.72199999999999998</v>
       </c>
       <c r="C257">
-        <v>2.2080000000000002</v>
+        <v>-0.69399999999999995</v>
       </c>
       <c r="D257">
-        <v>2.605</v>
+        <v>-0.624</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>37953</v>
+        <v>43434</v>
       </c>
       <c r="B258">
-        <v>2.1659999999999999</v>
+        <v>-0.64700000000000002</v>
       </c>
       <c r="C258">
-        <v>2.355</v>
+        <v>-0.66700000000000004</v>
       </c>
       <c r="D258">
-        <v>2.8119999999999998</v>
+        <v>-0.60199999999999998</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>37925</v>
+        <v>43465</v>
       </c>
       <c r="B259">
-        <v>2.141</v>
+        <v>-0.745</v>
       </c>
       <c r="C259">
-        <v>2.2919999999999998</v>
+        <v>-0.64600000000000002</v>
       </c>
       <c r="D259">
-        <v>2.6859999999999999</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>37894</v>
+        <v>43496</v>
       </c>
       <c r="B260">
-        <v>2.0329999999999999</v>
+        <v>-0.54900000000000004</v>
       </c>
       <c r="C260">
-        <v>2.048</v>
+        <v>-0.54100000000000004</v>
       </c>
       <c r="D260">
-        <v>2.2970000000000002</v>
+        <v>-0.56899999999999995</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>37862</v>
+        <v>43524</v>
       </c>
       <c r="B261">
-        <v>2.1240000000000001</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="C261">
-        <v>2.2360000000000002</v>
+        <v>-0.55800000000000005</v>
       </c>
       <c r="D261">
-        <v>2.593</v>
+        <v>-0.52800000000000002</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>37833</v>
+        <v>43553</v>
       </c>
       <c r="B262">
-        <v>2.0670000000000002</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="C262">
-        <v>2.129</v>
+        <v>-0.58199999999999996</v>
       </c>
       <c r="D262">
-        <v>2.456</v>
+        <v>-0.61099999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>37802</v>
+        <v>43585</v>
       </c>
       <c r="B263">
-        <v>2.0190000000000001</v>
+        <v>-0.52900000000000003</v>
       </c>
       <c r="C263">
-        <v>1.986</v>
+        <v>-0.56599999999999995</v>
       </c>
       <c r="D263">
-        <v>2.125</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>37771</v>
+        <v>43616</v>
       </c>
       <c r="B264">
-        <v>2.1440000000000001</v>
+        <v>-0.55100000000000005</v>
       </c>
       <c r="C264">
-        <v>2.0920000000000001</v>
+        <v>-0.63</v>
       </c>
       <c r="D264">
-        <v>2.1160000000000001</v>
+        <v>-0.67300000000000004</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>37741</v>
+        <v>43644</v>
       </c>
       <c r="B265">
-        <v>2.3780000000000001</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C265">
-        <v>2.327</v>
+        <v>-0.68300000000000005</v>
       </c>
       <c r="D265">
-        <v>2.427</v>
+        <v>-0.75800000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>37711</v>
+        <v>43677</v>
       </c>
       <c r="B266">
-        <v>2.36</v>
+        <v>-0.59499999999999997</v>
       </c>
       <c r="C266">
-        <v>2.331</v>
+        <v>-0.71499999999999997</v>
       </c>
       <c r="D266">
-        <v>2.407</v>
+        <v>-0.78500000000000003</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>37680</v>
+        <v>43707</v>
       </c>
       <c r="B267">
-        <v>2.38</v>
+        <v>-0.73699999999999999</v>
       </c>
       <c r="C267">
-        <v>2.2930000000000001</v>
+        <v>-0.85899999999999999</v>
       </c>
       <c r="D267">
-        <v>2.2949999999999999</v>
+        <v>-0.93300000000000005</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>37652</v>
+        <v>43738</v>
       </c>
       <c r="B268">
-        <v>2.6539999999999999</v>
+        <v>-0.623</v>
       </c>
       <c r="C268">
-        <v>2.5670000000000002</v>
+        <v>-0.69699999999999995</v>
       </c>
       <c r="D268">
-        <v>2.5960000000000001</v>
+        <v>-0.77300000000000002</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>37621</v>
+        <v>43769</v>
       </c>
       <c r="B269">
-        <v>2.76</v>
+        <v>-0.60599999999999998</v>
       </c>
       <c r="C269">
-        <v>2.6539999999999999</v>
+        <v>-0.65400000000000003</v>
       </c>
       <c r="D269">
-        <v>2.7210000000000001</v>
+        <v>-0.66800000000000004</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>37589</v>
+        <v>43798</v>
       </c>
       <c r="B270">
-        <v>2.9</v>
+        <v>-0.59499999999999997</v>
       </c>
       <c r="C270">
-        <v>2.95</v>
+        <v>-0.63700000000000001</v>
       </c>
       <c r="D270">
-        <v>3.1</v>
+        <v>-0.63600000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>37560</v>
+        <v>43830</v>
+      </c>
+      <c r="B271">
+        <v>-0.61199999999999999</v>
       </c>
       <c r="C271">
-        <v>3.0270000000000001</v>
+        <v>-0.65500000000000003</v>
       </c>
       <c r="D271">
-        <v>3.081</v>
+        <v>-0.61199999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>37529</v>
+        <v>43861</v>
+      </c>
+      <c r="B272">
+        <v>-0.55300000000000005</v>
       </c>
       <c r="C272">
-        <v>3.0430000000000001</v>
+        <v>-0.61899999999999999</v>
       </c>
       <c r="D272">
-        <v>3.0710000000000002</v>
+        <v>-0.67400000000000004</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>37498</v>
+        <v>43889</v>
+      </c>
+      <c r="B273">
+        <v>-0.61199999999999999</v>
       </c>
       <c r="C273">
-        <v>3.33</v>
+        <v>-0.74099999999999999</v>
       </c>
       <c r="D273">
-        <v>3.4769999999999999</v>
+        <v>-0.77600000000000002</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>37468</v>
+        <v>43921</v>
+      </c>
+      <c r="B274">
+        <v>-0.69599999999999995</v>
       </c>
       <c r="C274">
-        <v>3.4079999999999999</v>
+        <v>-0.69599999999999995</v>
       </c>
       <c r="D274">
-        <v>3.6179999999999999</v>
+        <v>-0.70199999999999996</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>37435</v>
+        <v>43951</v>
+      </c>
+      <c r="B275">
+        <v>-0.54</v>
       </c>
       <c r="C275">
-        <v>3.681</v>
+        <v>-0.55900000000000005</v>
       </c>
       <c r="D275">
-        <v>3.9249999999999998</v>
+        <v>-0.77700000000000002</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>37407</v>
+        <v>43980</v>
+      </c>
+      <c r="B276">
+        <v>-0.53300000000000003</v>
       </c>
       <c r="C276">
-        <v>3.9729999999999999</v>
+        <v>-0.59</v>
       </c>
       <c r="D276">
-        <v>4.2469999999999999</v>
+        <v>-0.66800000000000004</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>37376</v>
+        <v>44012</v>
+      </c>
+      <c r="B277">
+        <v>-0.53700000000000003</v>
       </c>
       <c r="C277">
-        <v>3.6779999999999999</v>
+        <v>-0.57799999999999996</v>
       </c>
       <c r="D277">
-        <v>4.07</v>
+        <v>-0.69499999999999995</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>37344</v>
+        <v>44043</v>
+      </c>
+      <c r="B278">
+        <v>-0.61099999999999999</v>
       </c>
       <c r="C278">
-        <v>3.9079999999999999</v>
+        <v>-0.58299999999999996</v>
       </c>
       <c r="D278">
-        <v>4.3339999999999996</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>37315</v>
+        <v>44074</v>
+      </c>
+      <c r="B279">
+        <v>-0.58399999999999996</v>
       </c>
       <c r="C279">
-        <v>3.4889999999999999</v>
+        <v>-0.57599999999999996</v>
       </c>
       <c r="D279">
-        <v>3.8719999999999999</v>
+        <v>-0.65800000000000003</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>37287</v>
+        <v>44104</v>
+      </c>
+      <c r="B280">
+        <v>-0.59499999999999997</v>
       </c>
       <c r="C280">
-        <v>3.504</v>
+        <v>-0.61299999999999999</v>
       </c>
       <c r="D280">
-        <v>3.9020000000000001</v>
+        <v>-0.70499999999999996</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>37256</v>
+        <v>44134</v>
+      </c>
+      <c r="B281">
+        <v>-0.72399999999999998</v>
       </c>
       <c r="C281">
-        <v>3.3090000000000002</v>
+        <v>-0.73299999999999998</v>
       </c>
       <c r="D281">
-        <v>3.649</v>
+        <v>-0.79800000000000004</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>37225</v>
+        <v>44165</v>
+      </c>
+      <c r="B282">
+        <v>-0.68799999999999994</v>
       </c>
       <c r="C282">
-        <v>3.1629999999999998</v>
+        <v>-0.69899999999999995</v>
       </c>
       <c r="D282">
-        <v>3.387</v>
+        <v>-0.749</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>37195</v>
+        <v>44196</v>
+      </c>
+      <c r="B283">
+        <v>-0.72899999999999998</v>
       </c>
       <c r="C283">
-        <v>3.2069999999999999</v>
+        <v>-0.73499999999999999</v>
       </c>
       <c r="D283">
-        <v>3.14</v>
+        <v>-0.71499999999999997</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>37162</v>
+        <v>44225</v>
+      </c>
+      <c r="B284">
+        <v>-0.61799999999999999</v>
       </c>
       <c r="C284">
-        <v>3.456</v>
+        <v>-0.67100000000000004</v>
       </c>
       <c r="D284">
-        <v>3.4809999999999999</v>
+        <v>-0.73799999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>37134</v>
+        <v>44253</v>
+      </c>
+      <c r="B285">
+        <v>-0.59299999999999997</v>
       </c>
       <c r="C285">
-        <v>3.996</v>
+        <v>-0.624</v>
       </c>
       <c r="D285">
-        <v>3.9470000000000001</v>
+        <v>-0.66800000000000004</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>37103</v>
+        <v>44286</v>
+      </c>
+      <c r="B286">
+        <v>-0.61399999999999999</v>
       </c>
       <c r="C286">
-        <v>4.1749999999999998</v>
+        <v>-0.65600000000000003</v>
       </c>
       <c r="D286">
-        <v>4.1340000000000003</v>
+        <v>-0.69499999999999995</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>37071</v>
+        <v>44316</v>
+      </c>
+      <c r="B287">
+        <v>-0.628</v>
       </c>
       <c r="C287">
-        <v>4.2649999999999997</v>
+        <v>-0.65</v>
       </c>
       <c r="D287">
-        <v>4.2809999999999997</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>37042</v>
+        <v>44347</v>
+      </c>
+      <c r="B288">
+        <v>-0.63600000000000001</v>
       </c>
       <c r="C288">
-        <v>4.3940000000000001</v>
+        <v>-0.65400000000000003</v>
       </c>
       <c r="D288">
-        <v>4.3860000000000001</v>
+        <v>-0.66800000000000004</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>37011</v>
+        <v>44377</v>
+      </c>
+      <c r="B289">
+        <v>-0.61799999999999999</v>
       </c>
       <c r="C289">
-        <v>4.7469999999999999</v>
+        <v>-0.64100000000000001</v>
       </c>
       <c r="D289">
-        <v>4.6260000000000003</v>
+        <v>-0.66700000000000004</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>36980</v>
+        <v>44407</v>
+      </c>
+      <c r="B290">
+        <v>-0.66100000000000003</v>
       </c>
       <c r="C290">
-        <v>4.2880000000000003</v>
+        <v>-0.66600000000000004</v>
       </c>
       <c r="D290">
-        <v>4.1379999999999999</v>
+        <v>-0.76700000000000002</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>36950</v>
+        <v>44439</v>
+      </c>
+      <c r="B291">
+        <v>-0.67800000000000005</v>
       </c>
       <c r="C291">
-        <v>4.5250000000000004</v>
+        <v>-0.68300000000000005</v>
       </c>
       <c r="D291">
-        <v>4.3739999999999997</v>
+        <v>-0.72199999999999998</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>36922</v>
+        <v>44469</v>
+      </c>
+      <c r="B292">
+        <v>-0.72299999999999998</v>
       </c>
       <c r="C292">
-        <v>4.4649999999999999</v>
+        <v>-0.68300000000000005</v>
       </c>
       <c r="D292">
-        <v>4.3860000000000001</v>
+        <v>-0.69499999999999995</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>36889</v>
+        <v>44498</v>
+      </c>
+      <c r="B293">
+        <v>-0.71599999999999997</v>
       </c>
       <c r="C293">
-        <v>4.63</v>
+        <v>-0.69</v>
       </c>
       <c r="D293">
-        <v>4.4459999999999997</v>
+        <v>-0.59099999999999997</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>36860</v>
+        <v>44530</v>
+      </c>
+      <c r="B294">
+        <v>-0.88800000000000001</v>
       </c>
       <c r="C294">
-        <v>4.9480000000000004</v>
+        <v>-0.80200000000000005</v>
       </c>
       <c r="D294">
-        <v>4.8310000000000004</v>
+        <v>-0.746</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>36830</v>
+        <v>44561</v>
+      </c>
+      <c r="B295">
+        <v>-0.67900000000000005</v>
       </c>
       <c r="C295">
-        <v>5.1719999999999997</v>
+        <v>-0.66600000000000004</v>
       </c>
       <c r="D295">
-        <v>5.0819999999999999</v>
+        <v>-0.63600000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>36798</v>
+        <v>44592</v>
+      </c>
+      <c r="B296">
+        <v>-0.67500000000000004</v>
       </c>
       <c r="C296">
-        <v>5.093</v>
+        <v>-0.67800000000000005</v>
       </c>
       <c r="D296">
-        <v>5.0430000000000001</v>
+        <v>-0.53600000000000003</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>36769</v>
+        <v>44620</v>
+      </c>
+      <c r="B297">
+        <v>-0.72399999999999998</v>
       </c>
       <c r="C297">
-        <v>5.1390000000000002</v>
+        <v>-0.68899999999999995</v>
       </c>
       <c r="D297">
-        <v>5.2110000000000003</v>
+        <v>-0.53900000000000003</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>36738</v>
+        <v>44651</v>
+      </c>
+      <c r="B298">
+        <v>-0.63500000000000001</v>
       </c>
       <c r="C298">
-        <v>5.0350000000000001</v>
+        <v>-0.46800000000000003</v>
       </c>
       <c r="D298">
-        <v>5.1059999999999999</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>36707</v>
+        <v>44680</v>
+      </c>
+      <c r="B299">
+        <v>-0.53400000000000003</v>
       </c>
       <c r="C299">
-        <v>4.8710000000000004</v>
+        <v>-0.252</v>
       </c>
       <c r="D299">
-        <v>4.95</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>36677</v>
+        <v>44712</v>
+      </c>
+      <c r="B300">
+        <v>-0.27800000000000002</v>
       </c>
       <c r="C300">
-        <v>4.7380000000000004</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D300">
-        <v>4.9420000000000002</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>36644</v>
+        <v>44742</v>
+      </c>
+      <c r="B301">
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="C301">
-        <v>4.3460000000000001</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D301">
-        <v>4.5940000000000003</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>36616</v>
+        <v>44771</v>
+      </c>
+      <c r="B302">
+        <v>0.13100000000000001</v>
       </c>
       <c r="C302">
-        <v>4.1390000000000002</v>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D302">
+        <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>36585</v>
+        <v>44804</v>
+      </c>
+      <c r="B303">
+        <v>5.5E-2</v>
       </c>
       <c r="C303">
-        <v>3.891</v>
+        <v>0.625</v>
+      </c>
+      <c r="D303">
+        <v>1.1839999999999999</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>36556</v>
+        <v>44834</v>
+      </c>
+      <c r="B304">
+        <v>1.1919999999999999</v>
       </c>
       <c r="C304">
-        <v>3.8879999999999999</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.67</v>
+      </c>
+      <c r="D304">
+        <v>1.7470000000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>36525</v>
+        <v>44865</v>
+      </c>
+      <c r="B305">
+        <v>1.49</v>
       </c>
       <c r="C305">
-        <v>3.661</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="D305">
+        <v>1.927</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>36494</v>
+        <v>44895</v>
+      </c>
+      <c r="B306">
+        <v>1.8480000000000001</v>
       </c>
       <c r="C306">
-        <v>3.5019999999999998</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="D306">
+        <v>2.1120000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>36462</v>
+        <v>44925</v>
+      </c>
+      <c r="B307">
+        <v>2.3159999999999998</v>
       </c>
       <c r="C307">
-        <v>3.4260000000000002</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="D307">
+        <v>2.738</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>36433</v>
+        <v>44957</v>
+      </c>
+      <c r="B308">
+        <v>2.5099999999999998</v>
       </c>
       <c r="C308">
-        <v>3.1509999999999998</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.7469999999999999</v>
+      </c>
+      <c r="D308">
+        <v>2.6440000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>36403</v>
+        <v>44985</v>
+      </c>
+      <c r="B309">
+        <v>2.9430000000000001</v>
       </c>
       <c r="C309">
-        <v>3.0880000000000001</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.1789999999999998</v>
+      </c>
+      <c r="D309">
+        <v>3.1280000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>36371</v>
+        <v>45016</v>
+      </c>
+      <c r="B310">
+        <v>2.8780000000000001</v>
       </c>
       <c r="C310">
-        <v>2.9860000000000002</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.97</v>
+      </c>
+      <c r="D310">
+        <v>2.673</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>36341</v>
+        <v>45044</v>
+      </c>
+      <c r="B311">
+        <v>3.024</v>
       </c>
       <c r="C311">
-        <v>2.8889999999999998</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.073</v>
+      </c>
+      <c r="D311">
+        <v>2.6749999999999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>36311</v>
+        <v>45077</v>
+      </c>
+      <c r="B312">
+        <v>3.121</v>
       </c>
       <c r="C312">
-        <v>2.6669999999999998</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.153</v>
+      </c>
+      <c r="D312">
+        <v>2.7069999999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>36280</v>
+        <v>45107</v>
+      </c>
+      <c r="B313">
+        <v>3.577</v>
       </c>
       <c r="C313">
-        <v>2.6160000000000001</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.5640000000000001</v>
+      </c>
+      <c r="D313">
+        <v>3.1880000000000002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>36250</v>
+        <v>45138</v>
+      </c>
+      <c r="B314">
+        <v>3.5950000000000002</v>
       </c>
       <c r="C314">
-        <v>2.871</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="D314">
+        <v>3.0310000000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>36217</v>
+        <v>45169</v>
+      </c>
+      <c r="B315">
+        <v>3.6179999999999999</v>
       </c>
       <c r="C315">
-        <v>3.016</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.5169999999999999</v>
+      </c>
+      <c r="D315">
+        <v>2.9670000000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>36189</v>
+        <v>45198</v>
+      </c>
+      <c r="B316">
+        <v>3.7349999999999999</v>
       </c>
       <c r="C316">
-        <v>2.883</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.68</v>
+      </c>
+      <c r="D316">
+        <v>3.198</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>36160</v>
+        <v>45230</v>
+      </c>
+      <c r="B317">
+        <v>3.7469999999999999</v>
       </c>
       <c r="C317">
-        <v>2.9590000000000001</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.62</v>
+      </c>
+      <c r="D317">
+        <v>3.0110000000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>36129</v>
+        <v>45260</v>
+      </c>
+      <c r="B318">
+        <v>3.7040000000000002</v>
       </c>
       <c r="C318">
-        <v>3.347</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3959999999999999</v>
+      </c>
+      <c r="D318">
+        <v>2.8119999999999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>36098</v>
+        <v>45289</v>
+      </c>
+      <c r="B319">
+        <v>3.65</v>
       </c>
       <c r="C319">
-        <v>3.4249999999999998</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="D319">
+        <v>2.3919999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>36068</v>
+        <v>45322</v>
+      </c>
+      <c r="B320">
+        <v>3.5880000000000001</v>
       </c>
       <c r="C320">
-        <v>3.4710000000000001</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.1240000000000001</v>
+      </c>
+      <c r="D320">
+        <v>2.415</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>36038</v>
+        <v>45351</v>
+      </c>
+      <c r="B321">
+        <v>3.6659999999999999</v>
       </c>
       <c r="C321">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.4119999999999999</v>
+      </c>
+      <c r="D321">
+        <v>2.8980000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>36007</v>
+        <v>45380</v>
+      </c>
+      <c r="B322">
+        <v>3.6240000000000001</v>
       </c>
       <c r="C322">
-        <v>3.7440000000000002</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.327</v>
+      </c>
+      <c r="D322">
+        <v>2.8460000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>35976</v>
+        <v>45412</v>
+      </c>
+      <c r="B323">
+        <v>3.589</v>
       </c>
       <c r="C323">
-        <v>3.7970000000000002</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.4279999999999999</v>
+      </c>
+      <c r="D323">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>35944</v>
+        <v>45443</v>
+      </c>
+      <c r="B324">
+        <v>3.5470000000000002</v>
       </c>
       <c r="C324">
-        <v>3.734</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.419</v>
+      </c>
+      <c r="D324">
+        <v>3.093</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>35915</v>
+        <v>45471</v>
+      </c>
+      <c r="B325">
+        <v>3.3719999999999999</v>
       </c>
       <c r="C325">
-        <v>3.8740000000000001</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="D325">
+        <v>2.8279999999999998</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>35885</v>
+        <v>45504</v>
+      </c>
+      <c r="B326">
+        <v>3.2930000000000001</v>
       </c>
       <c r="C326">
-        <v>3.798</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.9870000000000001</v>
+      </c>
+      <c r="D326">
+        <v>2.5249999999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>35853</v>
+        <v>45534</v>
+      </c>
+      <c r="B327">
+        <v>3.1160000000000001</v>
       </c>
       <c r="C327">
-        <v>3.6549999999999998</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.8109999999999999</v>
+      </c>
+      <c r="D327">
+        <v>2.3879999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>35825</v>
+        <v>45565</v>
+      </c>
+      <c r="B328">
+        <v>2.8690000000000002</v>
       </c>
       <c r="C328">
-        <v>3.673</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="D328">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>35795</v>
+        <v>45596</v>
+      </c>
+      <c r="B329">
+        <v>2.7530000000000001</v>
       </c>
       <c r="C329">
-        <v>3.9089999999999998</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="D329">
+        <v>2.2759999999999998</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>35762</v>
+        <v>45625</v>
+      </c>
+      <c r="B330">
+        <v>2.5030000000000001</v>
       </c>
       <c r="C330">
-        <v>4.0140000000000002</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="D330">
+        <v>1.9450000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>35734</v>
+        <v>45657</v>
+      </c>
+      <c r="B331">
+        <v>2.456</v>
       </c>
       <c r="C331">
-        <v>3.9209999999999998</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="D331">
+        <v>2.077</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>35703</v>
+        <v>45688</v>
+      </c>
+      <c r="B332">
+        <v>2.3410000000000002</v>
       </c>
       <c r="C332">
-        <v>3.5950000000000002</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.121</v>
+      </c>
+      <c r="D332">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>35671</v>
+        <v>45716</v>
+      </c>
+      <c r="B333">
+        <v>2.153</v>
       </c>
       <c r="C333">
-        <v>3.4740000000000002</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="D333">
+        <v>2.0209999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>35642</v>
+        <v>45747</v>
+      </c>
+      <c r="B334">
+        <v>2.109</v>
       </c>
       <c r="C334">
-        <v>3.3109999999999999</v>
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="D334">
+        <v>2.0449999999999999</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D334" xr:uid="{5B944FD5-6A5E-4C90-BE05-5A3EC25631D6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D334">
+      <sortCondition ref="A1:A334"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>